--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Con.Uni.Protein.PlaquePhenotypes.RANK.MODEL1.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Con.Uni.Protein.PlaquePhenotypes.RANK.MODEL1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">VesselDensity_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
 </sst>
 </file>
@@ -461,40 +467,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0450829299487483</v>
+        <v>0.0774398143281471</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02941442920076</v>
+        <v>0.0300215734496843</v>
       </c>
       <c r="F2" t="n">
-        <v>0.955918204298214</v>
+        <v>1.08051719884797</v>
       </c>
       <c r="G2" t="n">
-        <v>0.902365878244555</v>
+        <v>1.01877154148646</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01264867759226</v>
+        <v>1.14600513408804</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.53268076837552</v>
+        <v>2.57947220714247</v>
       </c>
       <c r="J2" t="n">
-        <v>0.125626260264793</v>
+        <v>0.0100178771177105</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00408847273333481</v>
+        <v>0.181666500331872</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00152169044656503</v>
+        <v>0.1717473063965</v>
       </c>
       <c r="M2" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N2" t="n">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="O2" t="n">
-        <v>51.755472945064</v>
+        <v>51.7127527858027</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +514,40 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.111735360370581</v>
+        <v>-0.0837455850970771</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0306802181362259</v>
+        <v>0.0301465959358952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.894280888350916</v>
+        <v>0.919665202867399</v>
       </c>
       <c r="G3" t="n">
-        <v>0.842089826675442</v>
+        <v>0.866898904218383</v>
       </c>
       <c r="H3" t="n">
-        <v>0.94970664878717</v>
+        <v>0.975643274261275</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.64193500432282</v>
+        <v>-2.77794498838796</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000282536979477093</v>
+        <v>0.00555927287493991</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0131909956068021</v>
+        <v>0.1816830876367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.010638903354061</v>
+        <v>0.171729623889449</v>
       </c>
       <c r="M3" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N3" t="n">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="O3" t="n">
-        <v>51.9206939281289</v>
+        <v>51.8778373916632</v>
       </c>
     </row>
     <row r="4">
@@ -555,40 +561,322 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.129023352669224</v>
+        <v>-0.0437922762272516</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0305472406170912</v>
+        <v>0.0291651820475902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.878953439396981</v>
+        <v>0.957152760206752</v>
       </c>
       <c r="G4" t="n">
-        <v>0.827872647098375</v>
+        <v>0.903972776946592</v>
       </c>
       <c r="H4" t="n">
-        <v>0.933185981365054</v>
+        <v>1.01346127863044</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.22373183511165</v>
+        <v>-1.50152590015703</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000260385046471483</v>
+        <v>0.133512163509766</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0191587600201497</v>
+        <v>0.179350738724407</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0164542345422641</v>
+        <v>0.168702833573473</v>
       </c>
       <c r="M4" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N4" t="n">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="O4" t="n">
-        <v>54.8946716232962</v>
+        <v>54.8493602971523</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0868178343037033</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0285581748232536</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.09069797386427</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.03132441044854</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.1534896858247</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.04003441540009</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00241871782439107</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.247483934421806</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.238370418056672</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1171</v>
+      </c>
+      <c r="O5" t="n">
+        <v>51.6714816343376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.148492575381802</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0284161560212707</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.862006407215198</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.81530888203239</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.911378573759403</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-5.22563907907348</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000000205891830271717</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.258832789468056</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.249825549062286</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1167</v>
+      </c>
+      <c r="O6" t="n">
+        <v>51.8365662401981</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.0335025123311633</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0278112126946543</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.967052481672265</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.915749439662387</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.02122967462941</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.2046404699786</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.228606040036961</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.237564890802019</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.227681472719822</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1095</v>
+      </c>
+      <c r="O7" t="n">
+        <v>54.8080891456872</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.116278510133553</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0387525820093411</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.12330868142184</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.04114747825829</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.21195356095809</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.00053581218212</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0028179014628275</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0898436194806476</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0781962800590106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N8" t="n">
+        <v>555</v>
+      </c>
+      <c r="O8" t="n">
+        <v>77.0945109368551</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.251422760451051</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0404251520664834</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.777693523987001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.718452232087924</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.841819664883863</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-6.21946356658252</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000000000995217476255572</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.138234731950483</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.12714584063367</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N9" t="n">
+        <v>552</v>
+      </c>
+      <c r="O9" t="n">
+        <v>77.2183243912505</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.0465296995741358</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0510257920998464</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.954536210830026</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8636909662687</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.0549367926378</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.911885884751915</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.362238728725745</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0830549675526182</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0710799391437904</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N10" t="n">
+        <v>544</v>
+      </c>
+      <c r="O10" t="n">
+        <v>77.5484936029715</v>
       </c>
     </row>
   </sheetData>
